--- a/solutions/cisco/network/sd-wan-enterprise/presales/level-of-effort-estimate.xlsx
+++ b/solutions/cisco/network/sd-wan-enterprise/presales/level-of-effort-estimate.xlsx
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D3" s="46">
-        <f>ROUND($G$9*40,0)</f>
+        <f>ROUND($C$23*40,0)</f>
         <v/>
       </c>
       <c r="E3" s="47" t="n">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="D4" s="49">
-        <f>ROUND($G$9*32,0)</f>
+        <f>ROUND($C$23*32,0)</f>
         <v/>
       </c>
       <c r="E4" s="50" t="n">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D5" s="46">
-        <f>ROUND($G$9*32,0)</f>
+        <f>ROUND($C$23*32,0)</f>
         <v/>
       </c>
       <c r="E5" s="47" t="n">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="D6" s="49">
-        <f>ROUND($G$9*24,0)</f>
+        <f>ROUND($C$23*24,0)</f>
         <v/>
       </c>
       <c r="E6" s="50" t="n">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D7" s="46">
-        <f>ROUND($G$10*60,0)</f>
+        <f>ROUND($C$24*60,0)</f>
         <v/>
       </c>
       <c r="E7" s="47" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D8" s="49">
-        <f>ROUND($G$10*48,0)</f>
+        <f>ROUND($C$24*48,0)</f>
         <v/>
       </c>
       <c r="E8" s="50" t="n">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D9" s="46">
-        <f>ROUND($G$10*32,0)</f>
+        <f>ROUND($C$24*32,0)</f>
         <v/>
       </c>
       <c r="E9" s="47" t="n">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="D10" s="49">
-        <f>ROUND($G$10*40,0)</f>
+        <f>ROUND($C$24*40,0)</f>
         <v/>
       </c>
       <c r="E10" s="50" t="n">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="D11" s="46">
-        <f>ROUND($G$11*40,0)</f>
+        <f>ROUND($C$25*40,0)</f>
         <v/>
       </c>
       <c r="E11" s="47" t="n">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D12" s="49">
-        <f>ROUND($G$11*40,0)</f>
+        <f>ROUND($C$25*40,0)</f>
         <v/>
       </c>
       <c r="E12" s="50" t="n">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D13" s="46">
-        <f>ROUND($G$11*60,0)</f>
+        <f>ROUND($C$25*60,0)</f>
         <v/>
       </c>
       <c r="E13" s="47" t="n">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="D14" s="49">
-        <f>ROUND($G$11*40,0)</f>
+        <f>ROUND($C$25*40,0)</f>
         <v/>
       </c>
       <c r="E14" s="50" t="n">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D15" s="46">
-        <f>ROUND($G$11*30,0)</f>
+        <f>ROUND($C$25*30,0)</f>
         <v/>
       </c>
       <c r="E15" s="47" t="n">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D16" s="49">
-        <f>ROUND($G$11*50,0)</f>
+        <f>ROUND($C$25*50,0)</f>
         <v/>
       </c>
       <c r="E16" s="50" t="n">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D17" s="46">
-        <f>ROUND($G$12*32,0)</f>
+        <f>ROUND($C$26*32,0)</f>
         <v/>
       </c>
       <c r="E17" s="47" t="n">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D18" s="49">
-        <f>ROUND($G$12*60,0)</f>
+        <f>ROUND($C$26*60,0)</f>
         <v/>
       </c>
       <c r="E18" s="50" t="n">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="D19" s="46">
-        <f>ROUND($G$12*40,0)</f>
+        <f>ROUND($C$26*40,0)</f>
         <v/>
       </c>
       <c r="E19" s="47" t="n">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="D20" s="49">
-        <f>ROUND($G$12*24,0)</f>
+        <f>ROUND($C$26*24,0)</f>
         <v/>
       </c>
       <c r="E20" s="50" t="n">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="D21" s="46">
-        <f>ROUND($G$13*60,0)</f>
+        <f>ROUND($C$27*60,0)</f>
         <v/>
       </c>
       <c r="E21" s="47" t="n">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="D22" s="49">
-        <f>ROUND($G$13*60,0)</f>
+        <f>ROUND($C$27*60,0)</f>
         <v/>
       </c>
       <c r="E22" s="50" t="n">
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="D23" s="46">
-        <f>ROUND($G$13*40,0)</f>
+        <f>ROUND($C$27*40,0)</f>
         <v/>
       </c>
       <c r="E23" s="47" t="n">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D24" s="49">
-        <f>ROUND($G$13*60,0)</f>
+        <f>ROUND($C$27*60,0)</f>
         <v/>
       </c>
       <c r="E24" s="50" t="n">
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="D25" s="46">
-        <f>ROUND($G$14*24,0)</f>
+        <f>ROUND($C$28*24,0)</f>
         <v/>
       </c>
       <c r="E25" s="47" t="n">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D26" s="49">
-        <f>ROUND($G$14*16,0)</f>
+        <f>ROUND($C$28*16,0)</f>
         <v/>
       </c>
       <c r="E26" s="50" t="n">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="D27" s="46">
-        <f>ROUND($G$14*32,0)</f>
+        <f>ROUND($C$28*32,0)</f>
         <v/>
       </c>
       <c r="E27" s="47" t="n">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D28" s="49">
-        <f>ROUND($G$15*16,0)</f>
+        <f>ROUND($C$29*16,0)</f>
         <v/>
       </c>
       <c r="E28" s="50" t="n">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D29" s="46">
-        <f>ROUND($G$15*16,0)</f>
+        <f>ROUND($C$29*16,0)</f>
         <v/>
       </c>
       <c r="E29" s="47" t="n">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D30" s="49">
-        <f>ROUND($G$15*16,0)</f>
+        <f>ROUND($C$29*16,0)</f>
         <v/>
       </c>
       <c r="E30" s="50" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D31" s="46">
-        <f>ROUND(SUM(E17:E44)*$G$16,0)</f>
+        <f>ROUND(SUM(E17:E44)*$C$30,0)</f>
         <v/>
       </c>
       <c r="E31" s="51">

--- a/solutions/cisco/network/sd-wan-enterprise/presales/level-of-effort-estimate.xlsx
+++ b/solutions/cisco/network/sd-wan-enterprise/presales/level-of-effort-estimate.xlsx
@@ -3141,11 +3141,11 @@
         </is>
       </c>
       <c r="D31" s="46">
-        <f>ROUND(SUM(E17:E44)*$C$30,0)</f>
+        <f>ROUND(SUM(E3:E30)*$C$30,0)</f>
         <v/>
       </c>
       <c r="E31" s="51">
-        <f>ROUND(SUM(E17:E44)*0.25,0)</f>
+        <f>ROUND(SUM(E3:E30)*0.25,0)</f>
         <v/>
       </c>
       <c r="F31" s="47" t="n">
@@ -3184,11 +3184,11 @@
         </is>
       </c>
       <c r="D32" s="49">
-        <f>ROUND(SUM(E17:E44)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E31)*0.20,0)</f>
         <v/>
       </c>
       <c r="E32" s="52">
-        <f>ROUND(SUM(E17:E44)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E31)*0.20,0)</f>
         <v/>
       </c>
       <c r="F32" s="50" t="n">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="E33" s="54">
-        <f>SUM(E17:E46)</f>
+        <f>SUM(E3:E32)</f>
         <v/>
       </c>
       <c r="F33" s="54" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G33" s="54">
-        <f>TEXT(SUM(G17:G46),"$#,##0")</f>
+        <f>TEXT(SUM(G3:G32),"$#,##0")</f>
         <v/>
       </c>
       <c r="H33" s="53" t="inlineStr"/>
